--- a/TEST/PR_GetMailByMessageId/TEST_PR_GetMailByMessageId_TestCases.xlsx
+++ b/TEST/PR_GetMailByMessageId/TEST_PR_GetMailByMessageId_TestCases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A0796649\OneDrive - Aon\Documents\UiPath\REQ-117_PolicyIntake\QE\TEST\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aoneu-my.sharepoint.com/personal/tomasz_rybka_aon_com/Documents/Documents/UiPath/REQ-117_PolicyIntake/REQ-117_QE/TEST/PR_GetMailByMessageId/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3064983F-8F5E-4B47-A475-D99069CE46DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{3064983F-8F5E-4B47-A475-D99069CE46DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6AE47548-BACE-4909-9C8C-3A90415E5DCF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{8125B0B8-68C3-4686-9945-809024932201}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>Output</t>
   </si>
@@ -52,6 +52,18 @@
   </si>
   <si>
     <t>&lt;CO1P170MB00F8FE8269@CO1P170MB0054.NAMP170.PROD.OUTLOOK.COM&gt;</t>
+  </si>
+  <si>
+    <t>MailAccount</t>
+  </si>
+  <si>
+    <t>MailFolder</t>
+  </si>
+  <si>
+    <t>Inbox\TEST</t>
+  </si>
+  <si>
+    <t>tomasz.rybka@aon.com</t>
   </si>
 </sst>
 </file>
@@ -415,55 +427,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6642FF11-675F-41A0-B907-784A30ABDEF8}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="92.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="b">
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="b">
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="b">
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="b">
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="b">
         <v>0</v>
       </c>
     </row>
